--- a/MejorGasto_Mod_2022-02-17.xlsx
+++ b/MejorGasto_Mod_2022-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>colsem</t>
   </si>
@@ -79,7 +79,7 @@
     <t>var7</t>
   </si>
   <si>
-    <t>var_multiple_6_salida_2_suma</t>
+    <t>var_multiple_6_salida_2_s</t>
   </si>
   <si>
     <t>var_multiple_6_salida_3_recuento</t>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Sub2_4</t>
-  </si>
-  <si>
-    <t>Sub3_4</t>
-  </si>
-  <si>
-    <t>Sub4_4</t>
   </si>
   <si>
     <t>66) Del 07/02 al 13/02</t>
@@ -542,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,28 +651,22 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
       <c r="C2">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -693,46 +681,46 @@
         <v>2022</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>20220211</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>20220211</v>
@@ -753,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -770,28 +758,22 @@
       <c r="AJ2">
         <v>7</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -806,28 +788,28 @@
         <v>2022</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>20220211</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -883,28 +865,22 @@
       <c r="AJ3">
         <v>7</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -919,28 +895,28 @@
         <v>2022</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>20220211</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -996,28 +972,22 @@
       <c r="AJ4">
         <v>7</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1032,28 +1002,28 @@
         <v>2022</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>20220211</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
         <v>49</v>
       </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s">
-        <v>51</v>
-      </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -1109,28 +1079,22 @@
       <c r="AJ5">
         <v>7</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1145,28 +1109,28 @@
         <v>2022</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>20220211</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -1222,28 +1186,22 @@
       <c r="AJ6">
         <v>7</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1258,28 +1216,28 @@
         <v>2022</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>20220211</v>
       </c>
       <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" t="s">
         <v>49</v>
       </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1303,7 +1261,7 @@
         <v>20220211</v>
       </c>
       <c r="Y7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1338,28 +1296,22 @@
       <c r="AJ7">
         <v>0</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1374,28 +1326,28 @@
         <v>2022</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>20220211</v>
       </c>
       <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>51</v>
-      </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R8">
         <v>4</v>
@@ -1419,7 +1371,7 @@
         <v>20220211</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1454,28 +1406,22 @@
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1490,28 +1436,28 @@
         <v>2022</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>20220211</v>
       </c>
       <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
         <v>48</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>51</v>
-      </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>4</v>
@@ -1535,7 +1481,7 @@
         <v>20220211</v>
       </c>
       <c r="Y9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z9" t="b">
         <v>0</v>
@@ -1569,12 +1515,6 @@
       </c>
       <c r="AJ9">
         <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
